--- a/WaterEdges.xlsx
+++ b/WaterEdges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wany105\OneDrive - Vanderbilt\Research\ShelbyCounty_DataRead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Infrastructure-network-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{412F8916-D870-449F-BCD5-A55BA05123E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4443EFBF-746A-4473-96D0-5DF4DB7F8DC6}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{412F8916-D870-449F-BCD5-A55BA05123E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7AF9F2FA-31A9-4DBD-9818-7EE7FA4AF3DD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4237" yWindow="1028" windowWidth="9045" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -381,10 +383,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
         <v>17</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -405,10 +407,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
         <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -417,10 +419,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -441,10 +443,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
         <v>21</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -453,10 +455,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
         <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -525,10 +527,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>20</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -537,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>25</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -561,10 +563,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
         <v>23</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -573,10 +575,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
         <v>23</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -645,10 +647,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
         <v>28</v>
-      </c>
-      <c r="C24" s="1">
-        <v>12</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -657,10 +659,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
         <v>27</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -669,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
         <v>27</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -681,10 +683,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
         <v>31</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -693,10 +695,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
         <v>31</v>
-      </c>
-      <c r="C28" s="1">
-        <v>7</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -705,10 +707,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
         <v>31</v>
-      </c>
-      <c r="C29" s="1">
-        <v>8</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -741,10 +743,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1">
         <v>29</v>
-      </c>
-      <c r="C32" s="1">
-        <v>22</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -753,10 +755,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
         <v>22</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -765,10 +767,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
         <v>29</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -885,10 +887,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
         <v>35</v>
-      </c>
-      <c r="C44" s="1">
-        <v>8</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -897,10 +899,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1">
         <v>32</v>
-      </c>
-      <c r="C45" s="1">
-        <v>12</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -933,10 +935,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
         <v>34</v>
-      </c>
-      <c r="C48" s="1">
-        <v>8</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -993,10 +995,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1">
         <v>37</v>
-      </c>
-      <c r="C53" s="1">
-        <v>13</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1053,10 +1055,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1">
         <v>49</v>
-      </c>
-      <c r="C58" s="1">
-        <v>14</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -1065,10 +1067,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1">
         <v>41</v>
-      </c>
-      <c r="C59" s="1">
-        <v>38</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -1077,10 +1079,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1">
         <v>38</v>
-      </c>
-      <c r="C60" s="1">
-        <v>9</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -1089,10 +1091,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1">
         <v>41</v>
-      </c>
-      <c r="C61" s="1">
-        <v>14</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -1101,10 +1103,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
+        <v>44</v>
+      </c>
+      <c r="C62" s="1">
         <v>46</v>
-      </c>
-      <c r="C62" s="1">
-        <v>44</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -1125,10 +1127,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
+        <v>43</v>
+      </c>
+      <c r="C64" s="1">
         <v>44</v>
-      </c>
-      <c r="C64" s="1">
-        <v>43</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -1137,10 +1139,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1">
         <v>46</v>
-      </c>
-      <c r="C65" s="1">
-        <v>15</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -1185,10 +1187,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
+        <v>46</v>
+      </c>
+      <c r="C69" s="1">
         <v>48</v>
-      </c>
-      <c r="C69" s="1">
-        <v>46</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -1209,10 +1211,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1">
         <v>15</v>
-      </c>
-      <c r="C71" s="1">
-        <v>14</v>
       </c>
       <c r="E71" s="1"/>
     </row>
